--- a/biology/Médecine/1163_en_santé_et_médecine/1163_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1163_en_santé_et_médecine/1163_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1163_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1163_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1163 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1163_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1163_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Au concile de Tours, le pape Alexandre III, rappelant et renforçant les prescriptions des conciles de 1139, 1148 et 1162, ordonne que « personne après avoir fait profession et prononcé ses vœux, n'irait plus nulle part pour entendre aucune lecture de médecine[1] » et, en interdisant aux moines de s’absenter plus de deux mois de leur monastère, il leur rend de fait impossible la poursuite d'études qui leur sont d'ailleurs déjà proscrites en droit.
-C'est par erreur qu'on a cru que le même 6e concile de Tours avait déclaré : « L'Église a horreur du sang » (« Ecclesia abhorret a sanguine[2] »), locution dont on ne trouve la première occurrence qu'en 1744, dans les Recherches sur la chirurgie en France de François Quesnay[3], et qui ne figure dans aucun écrit avalisé par l'Église catholique[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Au concile de Tours, le pape Alexandre III, rappelant et renforçant les prescriptions des conciles de 1139, 1148 et 1162, ordonne que « personne après avoir fait profession et prononcé ses vœux, n'irait plus nulle part pour entendre aucune lecture de médecine » et, en interdisant aux moines de s’absenter plus de deux mois de leur monastère, il leur rend de fait impossible la poursuite d'études qui leur sont d'ailleurs déjà proscrites en droit.
+C'est par erreur qu'on a cru que le même 6e concile de Tours avait déclaré : « L'Église a horreur du sang » (« Ecclesia abhorret a sanguine »), locution dont on ne trouve la première occurrence qu'en 1744, dans les Recherches sur la chirurgie en France de François Quesnay, et qui ne figure dans aucun écrit avalisé par l'Église catholique.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1163_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1163_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,14 +556,16 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pierre Ier Raymond, abbé de Saint-Maixent en Poitou, donne un jardin « à un hôpital pour servir d'hébergement aux habitants du bourg[5] ».
-Dans « une donation faite « à la maison des pauvres du bout du pont » par Guillaume Izarn du masage de Cabanes […], première mention d'un hôpital à Saint-Antonin » en Rouergue[6].
-L'« ancien hôpital » est attesté à Sion, en Valais[7].
-Un hôpital est attesté hors les murs à Douai, en Flandre[8].
-Fondation de la léproserie de femmes Saint-Julien-l'Hospitalier du Petit-Quevilly, près Rouen[9].
-Première mention de l'hôpital Saint-Antoine de Millau[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pierre Ier Raymond, abbé de Saint-Maixent en Poitou, donne un jardin « à un hôpital pour servir d'hébergement aux habitants du bourg ».
+Dans « une donation faite « à la maison des pauvres du bout du pont » par Guillaume Izarn du masage de Cabanes […], première mention d'un hôpital à Saint-Antonin » en Rouergue.
+L'« ancien hôpital » est attesté à Sion, en Valais.
+Un hôpital est attesté hors les murs à Douai, en Flandre.
+Fondation de la léproserie de femmes Saint-Julien-l'Hospitalier du Petit-Quevilly, près Rouen.
+Première mention de l'hôpital Saint-Antoine de Millau.</t>
         </is>
       </c>
     </row>
